--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H2">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I2">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J2">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>895.2335748387667</v>
+        <v>808.940169811052</v>
       </c>
       <c r="R2">
-        <v>8057.102173548901</v>
+        <v>7280.461528299468</v>
       </c>
       <c r="S2">
-        <v>0.0002710943011832558</v>
+        <v>0.0003742381558123251</v>
       </c>
       <c r="T2">
-        <v>0.0002710943011832558</v>
+        <v>0.0003742381558123249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H3">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I3">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J3">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>24227.55796828097</v>
+        <v>23415.92390658188</v>
       </c>
       <c r="R3">
-        <v>218048.0217145287</v>
+        <v>210743.3151592368</v>
       </c>
       <c r="S3">
-        <v>0.007336580174588348</v>
+        <v>0.01083285576174043</v>
       </c>
       <c r="T3">
-        <v>0.007336580174588348</v>
+        <v>0.01083285576174042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H4">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I4">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J4">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>33067.58611250337</v>
+        <v>16342.93951782767</v>
       </c>
       <c r="R4">
-        <v>297608.2750125303</v>
+        <v>147086.455660449</v>
       </c>
       <c r="S4">
-        <v>0.01001351423911994</v>
+        <v>0.007560697037869653</v>
       </c>
       <c r="T4">
-        <v>0.01001351423911994</v>
+        <v>0.007560697037869652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H5">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I5">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J5">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>2317.536600482267</v>
+        <v>2491.791733733549</v>
       </c>
       <c r="R5">
-        <v>20857.82940434041</v>
+        <v>22426.12560360194</v>
       </c>
       <c r="S5">
-        <v>0.0007017955792012283</v>
+        <v>0.001152771957558559</v>
       </c>
       <c r="T5">
-        <v>0.0007017955792012283</v>
+        <v>0.001152771957558559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H6">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I6">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J6">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>24811.49394078377</v>
+        <v>16590.13843701045</v>
       </c>
       <c r="R6">
-        <v>223303.4454670539</v>
+        <v>149311.245933094</v>
       </c>
       <c r="S6">
-        <v>0.007513407450564813</v>
+        <v>0.007675058113121205</v>
       </c>
       <c r="T6">
-        <v>0.007513407450564811</v>
+        <v>0.007675058113121203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>498.877777</v>
       </c>
       <c r="I7">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J7">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1121.599689474821</v>
+        <v>1048.615478194781</v>
       </c>
       <c r="R7">
-        <v>10094.39720527339</v>
+        <v>9437.539303753027</v>
       </c>
       <c r="S7">
-        <v>0.0003396424045873112</v>
+        <v>0.0004851186000659805</v>
       </c>
       <c r="T7">
-        <v>0.0003396424045873113</v>
+        <v>0.0004851186000659804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>498.877777</v>
       </c>
       <c r="I8">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J8">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>30353.66663817451</v>
@@ -948,10 +948,10 @@
         <v>273182.9997435706</v>
       </c>
       <c r="S8">
-        <v>0.009191686144152299</v>
+        <v>0.01404244794453194</v>
       </c>
       <c r="T8">
-        <v>0.0091916861441523</v>
+        <v>0.01404244794453193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>498.877777</v>
       </c>
       <c r="I9">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J9">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>41428.95816004826</v>
+        <v>21185.07644588612</v>
       </c>
       <c r="R9">
-        <v>372860.6234404343</v>
+        <v>190665.6880129751</v>
       </c>
       <c r="S9">
-        <v>0.01254550184087027</v>
+        <v>0.009800803861308296</v>
       </c>
       <c r="T9">
-        <v>0.01254550184087028</v>
+        <v>0.009800803861308296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>498.877777</v>
       </c>
       <c r="I10">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J10">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>2903.542052604084</v>
+        <v>3230.067535206123</v>
       </c>
       <c r="R10">
-        <v>26131.87847343675</v>
+        <v>29070.60781685511</v>
       </c>
       <c r="S10">
-        <v>0.0008792495342331908</v>
+        <v>0.001494318816936919</v>
       </c>
       <c r="T10">
-        <v>0.0008792495342331909</v>
+        <v>0.001494318816936919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>498.877777</v>
       </c>
       <c r="I11">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J11">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>31085.25493405615</v>
+        <v>21505.51622934827</v>
       </c>
       <c r="R11">
-        <v>279767.2944065053</v>
+        <v>193549.6460641344</v>
       </c>
       <c r="S11">
-        <v>0.00941322544227525</v>
+        <v>0.009949048191466589</v>
       </c>
       <c r="T11">
-        <v>0.00941322544227525</v>
+        <v>0.009949048191466588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2533.363444</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H12">
-        <v>7600.090332</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I12">
-        <v>0.4931260844008123</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J12">
-        <v>0.4931260844008122</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>17086.86846628526</v>
+        <v>12139.23516319215</v>
       </c>
       <c r="R12">
-        <v>153781.8161965674</v>
+        <v>109253.1164687293</v>
       </c>
       <c r="S12">
-        <v>0.005174239211383547</v>
+        <v>0.005615946827694661</v>
       </c>
       <c r="T12">
-        <v>0.005174239211383546</v>
+        <v>0.005615946827694661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2533.363444</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H13">
-        <v>7600.090332</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I13">
-        <v>0.4931260844008123</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J13">
-        <v>0.4931260844008122</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>462419.0913950874</v>
+        <v>351387.4294705927</v>
       </c>
       <c r="R13">
-        <v>4161771.822555786</v>
+        <v>3162486.865235334</v>
       </c>
       <c r="S13">
-        <v>0.1400295788259781</v>
+        <v>0.1625615694315486</v>
       </c>
       <c r="T13">
-        <v>0.1400295788259781</v>
+        <v>0.1625615694315486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2533.363444</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H14">
-        <v>7600.090332</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I14">
-        <v>0.4931260844008123</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J14">
-        <v>0.4931260844008122</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>631144.2178692503</v>
+        <v>245247.7865094463</v>
       </c>
       <c r="R14">
-        <v>5680297.960823252</v>
+        <v>2207230.078585017</v>
       </c>
       <c r="S14">
-        <v>0.1911228594391495</v>
+        <v>0.1134584271687086</v>
       </c>
       <c r="T14">
-        <v>0.1911228594391495</v>
+        <v>0.1134584271687086</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2533.363444</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H15">
-        <v>7600.090332</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I15">
-        <v>0.4931260844008123</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J15">
-        <v>0.4931260844008122</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>44233.64378997329</v>
+        <v>37392.68608771783</v>
       </c>
       <c r="R15">
-        <v>398102.7941097596</v>
+        <v>336534.1747894606</v>
       </c>
       <c r="S15">
-        <v>0.01339481570962255</v>
+        <v>0.01729889354561945</v>
       </c>
       <c r="T15">
-        <v>0.01339481570962255</v>
+        <v>0.01729889354561944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2533.363444</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H16">
-        <v>7600.090332</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I16">
-        <v>0.4931260844008123</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J16">
-        <v>0.4931260844008122</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>473564.3806640747</v>
+        <v>248957.3387409144</v>
       </c>
       <c r="R16">
-        <v>4262079.425976672</v>
+        <v>2240616.048668229</v>
       </c>
       <c r="S16">
-        <v>0.1434045912146785</v>
+        <v>0.1151745689030452</v>
       </c>
       <c r="T16">
-        <v>0.1434045912146785</v>
+        <v>0.1151745689030452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.77866766666667</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H17">
-        <v>110.336003</v>
+        <v>112.563208</v>
       </c>
       <c r="I17">
-        <v>0.007159067688805765</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J17">
-        <v>0.007159067688805764</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>248.0624161029586</v>
+        <v>236.6020849713227</v>
       </c>
       <c r="R17">
-        <v>2232.561744926627</v>
+        <v>2129.418764741904</v>
       </c>
       <c r="S17">
-        <v>7.511816941782273E-05</v>
+        <v>0.0001094586858774745</v>
       </c>
       <c r="T17">
-        <v>7.511816941782273E-05</v>
+        <v>0.0001094586858774745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.77866766666667</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H18">
-        <v>110.336003</v>
+        <v>112.563208</v>
       </c>
       <c r="I18">
-        <v>0.007159067688805765</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J18">
-        <v>0.007159067688805764</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>6713.272083175239</v>
+        <v>6848.783908358976</v>
       </c>
       <c r="R18">
-        <v>60419.44874857715</v>
+        <v>61639.05517523078</v>
       </c>
       <c r="S18">
-        <v>0.00203291057796757</v>
+        <v>0.003168437364187343</v>
       </c>
       <c r="T18">
-        <v>0.00203291057796757</v>
+        <v>0.003168437364187342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.77866766666667</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H19">
-        <v>110.336003</v>
+        <v>112.563208</v>
       </c>
       <c r="I19">
-        <v>0.007159067688805765</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J19">
-        <v>0.007159067688805764</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>9162.776661093803</v>
+        <v>4780.048894569582</v>
       </c>
       <c r="R19">
-        <v>82464.98994984422</v>
+        <v>43020.44005112624</v>
       </c>
       <c r="S19">
-        <v>0.002774668651457626</v>
+        <v>0.002211383177342151</v>
       </c>
       <c r="T19">
-        <v>0.002774668651457626</v>
+        <v>0.002211383177342151</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.77866766666667</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H20">
-        <v>110.336003</v>
+        <v>112.563208</v>
       </c>
       <c r="I20">
-        <v>0.007159067688805765</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J20">
-        <v>0.007159067688805764</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>642.171769111997</v>
+        <v>728.8093007587592</v>
       </c>
       <c r="R20">
-        <v>5779.545922007973</v>
+        <v>6559.283706828833</v>
       </c>
       <c r="S20">
-        <v>0.0001944622184421375</v>
+        <v>0.0003371673936263238</v>
       </c>
       <c r="T20">
-        <v>0.0001944622184421375</v>
+        <v>0.0003371673936263237</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.77866766666667</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H21">
-        <v>110.336003</v>
+        <v>112.563208</v>
       </c>
       <c r="I21">
-        <v>0.007159067688805765</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J21">
-        <v>0.007159067688805764</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>6875.076300822643</v>
+        <v>4852.350631909397</v>
       </c>
       <c r="R21">
-        <v>61875.68670740379</v>
+        <v>43671.15568718456</v>
       </c>
       <c r="S21">
-        <v>0.002081908071520609</v>
+        <v>0.002244831966083102</v>
       </c>
       <c r="T21">
-        <v>0.002081908071520608</v>
+        <v>0.002244831966083102</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2268.188964666666</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H22">
-        <v>6804.566894</v>
+        <v>7174.620728</v>
       </c>
       <c r="I22">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J22">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>15298.33652085298</v>
+        <v>15080.68447305863</v>
       </c>
       <c r="R22">
-        <v>137685.0286876769</v>
+        <v>135726.1602575277</v>
       </c>
       <c r="S22">
-        <v>0.004632636626853337</v>
+        <v>0.006976742849725545</v>
       </c>
       <c r="T22">
-        <v>0.004632636626853338</v>
+        <v>0.006976742849725545</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2268.188964666666</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H23">
-        <v>6804.566894</v>
+        <v>7174.620728</v>
       </c>
       <c r="I23">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J23">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>414016.3475705082</v>
+        <v>436531.8638618149</v>
       </c>
       <c r="R23">
-        <v>3726147.128134574</v>
+        <v>3928786.774756334</v>
       </c>
       <c r="S23">
-        <v>0.1253722777804497</v>
+        <v>0.2019517459778526</v>
       </c>
       <c r="T23">
-        <v>0.1253722777804497</v>
+        <v>0.2019517459778526</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2268.188964666666</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H24">
-        <v>6804.566894</v>
+        <v>7174.620728</v>
       </c>
       <c r="I24">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J24">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>565080.5270261127</v>
+        <v>304673.600630078</v>
       </c>
       <c r="R24">
-        <v>5085724.743235013</v>
+        <v>2742062.405670702</v>
       </c>
       <c r="S24">
-        <v>0.1711174769266219</v>
+        <v>0.1409504567576778</v>
       </c>
       <c r="T24">
-        <v>0.1711174769266219</v>
+        <v>0.1409504567576778</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2268.188964666666</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H25">
-        <v>6804.566894</v>
+        <v>7174.620728</v>
       </c>
       <c r="I25">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J25">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>39603.5803504764</v>
+        <v>46453.28086227765</v>
       </c>
       <c r="R25">
-        <v>356432.2231542877</v>
+        <v>418079.5277604989</v>
       </c>
       <c r="S25">
-        <v>0.01199274160534132</v>
+        <v>0.02149057595370911</v>
       </c>
       <c r="T25">
-        <v>0.01199274160534132</v>
+        <v>0.02149057595370911</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2268.188964666666</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H26">
-        <v>6804.566894</v>
+        <v>7174.620728</v>
       </c>
       <c r="I26">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J26">
-        <v>0.4415091507996061</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>423995.0271744186</v>
+        <v>309282.0117850679</v>
       </c>
       <c r="R26">
-        <v>3815955.244569768</v>
+        <v>2783538.106065611</v>
       </c>
       <c r="S26">
-        <v>0.1283940178603399</v>
+        <v>0.1430824355568901</v>
       </c>
       <c r="T26">
-        <v>0.1283940178603399</v>
+        <v>0.1430824355568901</v>
       </c>
     </row>
   </sheetData>
